--- a/RawData_v2.xlsx
+++ b/RawData_v2.xlsx
@@ -8400,7 +8400,7 @@
         <v>459</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>32</v>
+        <v>594</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>653</v>

--- a/RawData_v2.xlsx
+++ b/RawData_v2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="955">
   <si>
     <t>ID</t>
   </si>
@@ -1146,7 +1146,7 @@
     <t>https://www.nespresso.com/shared_res/agility/global/coffees/ol/sku-main-info-product/filter-style-mild_open-capsule_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
   </si>
   <si>
-    <t>Current (Online Exclusive)</t>
+    <t>Not Current (Online Exclusive)</t>
   </si>
   <si>
     <t>Filter Style Coffees</t>
@@ -1381,6 +1381,126 @@
     <t>51 g. - 1.80 oz for 10 capsules</t>
   </si>
   <si>
+    <t>OL44</t>
+  </si>
+  <si>
+    <t>No.20</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/28116268482590/C-1140-n20-ResponsivePLPImage.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/28646182846494/WW-ALL-OL-No20-Sleeve-OL-002-3Q-TranspBG-23-XX.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Orange Blossom &amp; Citrus</t>
+  </si>
+  <si>
+    <t>Citrus, Floral</t>
+  </si>
+  <si>
+    <t>Experience the exclusive and rare single-origin specialty coffee, balanced like a fresh garden in the finest terroir elevations of Colombia.</t>
+  </si>
+  <si>
+    <t>How to discover the most precious coffee in the world? A rich, complex and never-before tasted experience: fruit of 20 years in art of coffee​. The journey through the senses​. Look: The velvety, silky, and delicate crema, with amber hues and golden reflections. ​Smell: A floral and fruity bouquet, evoking the smells of a fragrant garden after a refreshing rain during an end of day.​ Taste: At the first sip, enjoy the unique notes of orange blossom &amp; fresh citrus aromas emerging from this coffee. Not your average coffee.</t>
+  </si>
+  <si>
+    <t>Unique coffee. 20-year of expertise encapsulates in one coffee capsule. 100% Arabica. A new variety of arabica beans created by Nespresso, meticulously selected.</t>
+  </si>
+  <si>
+    <t>From beans to coffee. This unique coffee was achieved by cross planting two of the finest Arabica coffees and grown by 59 select famers.</t>
+  </si>
+  <si>
+    <t>5 capsules of roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>26.5 g - 0.94 oz for 5 capsules</t>
+  </si>
+  <si>
+    <t>OL45</t>
+  </si>
+  <si>
+    <t>Kahawa Ya Congo</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/14473908650014/kahawa-ya-congo-XL.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/ol/congo_S.png</t>
+  </si>
+  <si>
+    <t>40 ml  (Espresso), 110 ml (Lungo)</t>
+  </si>
+  <si>
+    <t>Fruity &amp; Biscuity</t>
+  </si>
+  <si>
+    <t>Berry, Cereal</t>
+  </si>
+  <si>
+    <t>A smooth organic coffee with toasted cereal notes, nutty aromas and mild fruitiness.</t>
+  </si>
+  <si>
+    <t>Kahawa ya Congo comes as our only organic coffee under the Reviving Origins umbrella. The rain rich volcanic soils of the Kivu lakeshores are fertile ground for Congo's farmers to bring you this mild coffee's fruity and sweet cereal notes. Years of continued conflict and political instability leave many plantation abandoned and smallholder farmers tapping only a small raction of the Congo's potential for specialty coffee. Nespresso Reviving Origins program joins together with the South Kivu farmers and partners to support coffee communities in raising Congo coffee to its full stature. REVIVING ORIGINS Congo is still a carce treasure to behold. But each year, we'll bring you more of this smooth coffee with its mild fruity note and alluring sweet cereal and nutty aromas.</t>
+  </si>
+  <si>
+    <t>This 100% Arabica coffee is sourced in the rich Lake Kivu shores in eastern Congo.</t>
+  </si>
+  <si>
+    <t>Kahawa ya Congo is a split roast. Both splits are dark and short, with the first being slightly darker and longer to develop more intensity for this coffee.</t>
+  </si>
+  <si>
+    <t>10 capsules of roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee.</t>
+  </si>
+  <si>
+    <t>OL46</t>
+  </si>
+  <si>
+    <t>Pumpkin Spice Cake</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/32074134781982/Pumpkin-Spice-Cake-2x.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/32484618338334/OL-pumpkin-2024.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>110 ml (Lungo), Milk Recipes</t>
+  </si>
+  <si>
+    <t>Pumpkin &amp; Spices flavoured</t>
+  </si>
+  <si>
+    <t>Spicy, Flavoured, Pumpkin, Cardamom</t>
+  </si>
+  <si>
+    <t>A delicious sweet pumpkin flavour combined with a wide range of spicy notes such as cloves, cinnamon and cardamom and a cake-like sweetness.</t>
+  </si>
+  <si>
+    <t>Enjoy warming spice notes with sweet pumpkin flavour</t>
+  </si>
+  <si>
+    <t>A smooth, 100% arabica base blend made of naturally sweet beans from Brazil and lively washed beans from Colombia.</t>
+  </si>
+  <si>
+    <t>The Brazilian coffee is lightly roasted to keep it smooth and with all its malted cereal notes intact, while the majority of the Colombian coffee beans get a short roast to release all their finer aromatics. We add the flavour in after roasting.​</t>
+  </si>
+  <si>
+    <t>10 capsules of flavoured roast and ground coffee. Pumpkin spice flavoured.</t>
+  </si>
+  <si>
+    <t>Roast and ground coffee, natural flavours.</t>
+  </si>
+  <si>
+    <t>125 g - 4.40 oz for 10 capsules</t>
+  </si>
+  <si>
     <t>VL1</t>
   </si>
   <si>
@@ -1444,9 +1564,6 @@
     <t>Why we love it: Stormio’s a darkly roasted blend that rushes in with this myriad of aromas. But that all that strength could come from pure Arabica coffees?</t>
   </si>
   <si>
-    <t>125 g - 4.40 oz for 10 capsules</t>
-  </si>
-  <si>
     <t>VL3</t>
   </si>
   <si>
@@ -1783,9 +1900,6 @@
     <t>7 capsules of roast and ground coffee for the Vertuo Next Machine.</t>
   </si>
   <si>
-    <t>Roast and ground coffee.</t>
-  </si>
-  <si>
     <t>VL15</t>
   </si>
   <si>
@@ -1975,9 +2089,6 @@
     <t>https://www.nespresso.com/ecom/medias/sys_master/public/15537109106718/il-caffe-XL.png</t>
   </si>
   <si>
-    <t>Espresso</t>
-  </si>
-  <si>
     <t>Exceptionally Intense &amp; Velvety</t>
   </si>
   <si>
@@ -2554,6 +2665,9 @@
     <t>https://cdn.mall.adeptmind.ai/https%3A%2F%2Fwww.nespresso.com%2Fecom%2Fmedias%2Fsys_master%2Fpublic%2F30176948912158%2Fristretto-classico-composition.png_large.webp</t>
   </si>
   <si>
+    <t>Current (Online Exclusive)</t>
+  </si>
+  <si>
     <t>Intensely roasted &amp; berry</t>
   </si>
   <si>
@@ -2672,6 +2786,100 @@
   </si>
   <si>
     <t>10 capsules of artificially flavoured roast and ground coffe</t>
+  </si>
+  <si>
+    <t>VL47</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/31888065986590/C-1247-Responsive-PLP-Image.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/n20-vl_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>Citrus, Floral, Orange Blossom</t>
+  </si>
+  <si>
+    <t>How to discover the most precious coffee in the world? A rich, complex and never-before tasted experience: fruit of 20 years in art of coffee​. The journey through the senses​. Look: The velvety, silky, and delicate crema, with amber hues and golden reflections. ​Smell: A floral and fruity bouquet, evoking the smells of a fragrant garden after a refreshing rain during an end of day.​ Taste: At the first sip, enjoy the unique notes of orange blossom &amp; fresh citrus aromas emerging from this coffee.How to discover the most precious coffee in the world?</t>
+  </si>
+  <si>
+    <t>48 g - 1.69 oz for 5 capsules</t>
+  </si>
+  <si>
+    <t>VL48</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17299760119838/kahawa-ya-congo-2x.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/n-components/pdp/sku-main-info/coffee-sleeves/vl/kahawa-ya-congo_S.png</t>
+  </si>
+  <si>
+    <t>Balanced, Fruity, Biscuity, Sweet Cereal</t>
+  </si>
+  <si>
+    <t>A smooth coffee, with mild fruity notes and sweet cereal and nutty aromas.</t>
+  </si>
+  <si>
+    <t>We roast this coffee in 2 batches. Although it is overall a medium roast profile, a small portion of these coffees get a darker roast to bring out the intensity and body.</t>
+  </si>
+  <si>
+    <t>VL49</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/17299753566238/pumpkin-spice-cake-2x.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/pumpkin-spice-cake_2024.png</t>
+  </si>
+  <si>
+    <t>Flavoured, Spicy, Pumpkin, Cardamom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A delicious sweet pumpkin flavour combined with a wide range of spicy notes such as cloves, cinnamon and cardamom and a cake-like sweetness.
+</t>
+  </si>
+  <si>
+    <t>10 capsules of flavoured roast and ground coffee. Pumpkin spice flavoured</t>
+  </si>
+  <si>
+    <t>126 g - 4.40 oz for 10 capsules</t>
+  </si>
+  <si>
+    <t>VL50</t>
+  </si>
+  <si>
+    <t>Maple Pecan</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/ecom/medias/sys_master/public/30313833529374/C-1215-PLPimage-320-320.png?impolicy=small&amp;imwidth=112&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>https://www.nespresso.com/shared_res/agility/global/coffees/vl/sku-main-info-product/maple-pecan_2x.png?impolicy=medium&amp;imwidth=824&amp;imdensity=1</t>
+  </si>
+  <si>
+    <t>230 ml (Coffee), Iced Recipe, Milk Recipe</t>
+  </si>
+  <si>
+    <t>Maple and pecan flavoured</t>
+  </si>
+  <si>
+    <t>Pecan Nut, Maple Syrup</t>
+  </si>
+  <si>
+    <t>See the rich crema, a signature of our Vertuo coffees, ready to be folded and to release its indulgent aromas. Smell the subtle blend of sweet maple, nutty pecan, and quality coffee. Taste the delicious and subtle Maple Pecan flavour in a blend of a balanced, cereal-like coffee base.</t>
+  </si>
+  <si>
+    <t>Raw ingredients meeting in harmony No artifical flavours or added sugars. No allergens. Subtle nutty flavour for all to enjoy.</t>
+  </si>
+  <si>
+    <t>Sourced from Brazil and Ethiopia. This 100% Arabica blend is ethically sourced through the AAA Sustainable Quality™ Program.</t>
+  </si>
+  <si>
+    <t>A medium roast. Latin American beans are roasted medium dark and quickly to develop sweetness. The other coffees are roasted a bit longer to develop a velvety texture.</t>
+  </si>
+  <si>
+    <t>10 capsules of flavoured roast and ground coffee. Maple pecan flavour with other natural flavours.</t>
   </si>
 </sst>
 </file>
@@ -6235,3523 +6443,229 @@
         <v>454</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="D3"/>
-    <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="D4"/>
-    <hyperlink r:id="rId7" ref="C5"/>
-    <hyperlink r:id="rId8" ref="D5"/>
-    <hyperlink r:id="rId9" ref="C6"/>
-    <hyperlink r:id="rId10" ref="D6"/>
-    <hyperlink r:id="rId11" ref="C7"/>
-    <hyperlink r:id="rId12" ref="D7"/>
-    <hyperlink r:id="rId13" ref="C8"/>
-    <hyperlink r:id="rId14" ref="D8"/>
-    <hyperlink r:id="rId15" ref="C9"/>
-    <hyperlink r:id="rId16" ref="D9"/>
-    <hyperlink r:id="rId17" ref="C10"/>
-    <hyperlink r:id="rId18" ref="D10"/>
-    <hyperlink r:id="rId19" ref="C11"/>
-    <hyperlink r:id="rId20" ref="D11"/>
-    <hyperlink r:id="rId21" ref="C12"/>
-    <hyperlink r:id="rId22" ref="D12"/>
-    <hyperlink r:id="rId23" ref="C13"/>
-    <hyperlink r:id="rId24" ref="D13"/>
-    <hyperlink r:id="rId25" ref="C14"/>
-    <hyperlink r:id="rId26" ref="D14"/>
-    <hyperlink r:id="rId27" ref="C15"/>
-    <hyperlink r:id="rId28" ref="D15"/>
-    <hyperlink r:id="rId29" ref="C16"/>
-    <hyperlink r:id="rId30" ref="D16"/>
-    <hyperlink r:id="rId31" ref="C17"/>
-    <hyperlink r:id="rId32" ref="D17"/>
-    <hyperlink r:id="rId33" ref="C18"/>
-    <hyperlink r:id="rId34" ref="D18"/>
-    <hyperlink r:id="rId35" ref="C19"/>
-    <hyperlink r:id="rId36" ref="D19"/>
-    <hyperlink r:id="rId37" ref="C20"/>
-    <hyperlink r:id="rId38" ref="D20"/>
-    <hyperlink r:id="rId39" ref="C21"/>
-    <hyperlink r:id="rId40" ref="D21"/>
-    <hyperlink r:id="rId41" ref="C22"/>
-    <hyperlink r:id="rId42" ref="D22"/>
-    <hyperlink r:id="rId43" ref="C23"/>
-    <hyperlink r:id="rId44" ref="D23"/>
-    <hyperlink r:id="rId45" ref="C24"/>
-    <hyperlink r:id="rId46" ref="D24"/>
-    <hyperlink r:id="rId47" ref="C25"/>
-    <hyperlink r:id="rId48" ref="D25"/>
-    <hyperlink r:id="rId49" ref="C26"/>
-    <hyperlink r:id="rId50" ref="D26"/>
-    <hyperlink r:id="rId51" ref="C27"/>
-    <hyperlink r:id="rId52" ref="D27"/>
-    <hyperlink r:id="rId53" ref="C28"/>
-    <hyperlink r:id="rId54" ref="D28"/>
-    <hyperlink r:id="rId55" ref="C29"/>
-    <hyperlink r:id="rId56" ref="D29"/>
-    <hyperlink r:id="rId57" ref="C30"/>
-    <hyperlink r:id="rId58" ref="D30"/>
-    <hyperlink r:id="rId59" ref="C31"/>
-    <hyperlink r:id="rId60" ref="D31"/>
-    <hyperlink r:id="rId61" ref="C32"/>
-    <hyperlink r:id="rId62" ref="D32"/>
-    <hyperlink r:id="rId63" ref="C33"/>
-    <hyperlink r:id="rId64" ref="D33"/>
-    <hyperlink r:id="rId65" ref="C34"/>
-    <hyperlink r:id="rId66" ref="D34"/>
-    <hyperlink r:id="rId67" ref="C35"/>
-    <hyperlink r:id="rId68" ref="D35"/>
-    <hyperlink r:id="rId69" ref="C36"/>
-    <hyperlink r:id="rId70" ref="D36"/>
-    <hyperlink r:id="rId71" ref="C37"/>
-    <hyperlink r:id="rId72" ref="D37"/>
-    <hyperlink r:id="rId73" ref="C38"/>
-    <hyperlink r:id="rId74" ref="D38"/>
-    <hyperlink r:id="rId75" ref="C39"/>
-    <hyperlink r:id="rId76" ref="D39"/>
-    <hyperlink r:id="rId77" ref="C40"/>
-    <hyperlink r:id="rId78" ref="D40"/>
-    <hyperlink r:id="rId79" ref="C41"/>
-    <hyperlink r:id="rId80" ref="D41"/>
-    <hyperlink r:id="rId81" ref="C42"/>
-    <hyperlink r:id="rId82" ref="D42"/>
-    <hyperlink r:id="rId83" ref="C43"/>
-    <hyperlink r:id="rId84" ref="D43"/>
-    <hyperlink r:id="rId85" ref="C44"/>
-    <hyperlink r:id="rId86" ref="D44"/>
-  </hyperlinks>
-  <drawing r:id="rId87"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="4.88"/>
-    <col customWidth="1" min="2" max="2" width="26.25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="45">
+      <c r="A45" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B45" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C45" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D45" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J45" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M45" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="J2" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N45" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="N2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="2" t="s">
+      <c r="W45" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X45" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y45" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J4" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J5" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="N9" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="N10" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="N11" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="J13" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K14" s="2">
-        <v>10.85</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K15" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K16" s="2">
-        <v>11.2</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J17" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="J19" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="J20" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="N20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="J21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="N21" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>12.1</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="N22" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="J23" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="J24" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="J25" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J26" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z26" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="N27" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="O27" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="J28" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O28" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z28" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="N29" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O29" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="J30" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z30" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="J31" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O31" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="J32" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O32" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="J33" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="N33" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K34" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K35" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K36" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O36" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K37" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K38" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O38" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K39" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="N39" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z39" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K40" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="S40" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K41" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K42" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K43" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="J44" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>8.8</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="N44" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K45" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="N45" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="A46" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K46" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>42</v>
+      <c r="G46" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="N46" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="O46" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z46" s="10" t="s">
+        <v>480</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>610</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="A47" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="G47" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K47" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>476</v>
+      <c r="K47" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="N47" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA47" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -9851,4 +6765,3837 @@
   </hyperlinks>
   <drawing r:id="rId93"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.88"/>
+    <col customWidth="1" min="2" max="2" width="26.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10.85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="J23" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="J24" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J31" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K34" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K42" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="10">
+        <v>18.75</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="N48" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA48" s="10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="K49" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="N49" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="Y49" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z49" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA49" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="N50" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="Z50" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA50" s="10" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>946</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="N51" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="Z51" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA51" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="C4"/>
+    <hyperlink r:id="rId6" ref="D4"/>
+    <hyperlink r:id="rId7" ref="C5"/>
+    <hyperlink r:id="rId8" ref="D5"/>
+    <hyperlink r:id="rId9" ref="C6"/>
+    <hyperlink r:id="rId10" ref="D6"/>
+    <hyperlink r:id="rId11" ref="C7"/>
+    <hyperlink r:id="rId12" ref="D7"/>
+    <hyperlink r:id="rId13" ref="C8"/>
+    <hyperlink r:id="rId14" ref="D8"/>
+    <hyperlink r:id="rId15" ref="C9"/>
+    <hyperlink r:id="rId16" ref="D9"/>
+    <hyperlink r:id="rId17" ref="C10"/>
+    <hyperlink r:id="rId18" ref="D10"/>
+    <hyperlink r:id="rId19" ref="C11"/>
+    <hyperlink r:id="rId20" ref="D11"/>
+    <hyperlink r:id="rId21" ref="C12"/>
+    <hyperlink r:id="rId22" ref="D12"/>
+    <hyperlink r:id="rId23" ref="C13"/>
+    <hyperlink r:id="rId24" ref="D13"/>
+    <hyperlink r:id="rId25" ref="C14"/>
+    <hyperlink r:id="rId26" ref="D14"/>
+    <hyperlink r:id="rId27" ref="C15"/>
+    <hyperlink r:id="rId28" ref="D15"/>
+    <hyperlink r:id="rId29" ref="C16"/>
+    <hyperlink r:id="rId30" ref="D16"/>
+    <hyperlink r:id="rId31" ref="C17"/>
+    <hyperlink r:id="rId32" ref="D17"/>
+    <hyperlink r:id="rId33" ref="C18"/>
+    <hyperlink r:id="rId34" ref="D18"/>
+    <hyperlink r:id="rId35" ref="C19"/>
+    <hyperlink r:id="rId36" ref="D19"/>
+    <hyperlink r:id="rId37" ref="C20"/>
+    <hyperlink r:id="rId38" ref="D20"/>
+    <hyperlink r:id="rId39" ref="C21"/>
+    <hyperlink r:id="rId40" ref="D21"/>
+    <hyperlink r:id="rId41" ref="C22"/>
+    <hyperlink r:id="rId42" ref="D22"/>
+    <hyperlink r:id="rId43" ref="C23"/>
+    <hyperlink r:id="rId44" ref="D23"/>
+    <hyperlink r:id="rId45" ref="C24"/>
+    <hyperlink r:id="rId46" ref="D24"/>
+    <hyperlink r:id="rId47" ref="C25"/>
+    <hyperlink r:id="rId48" ref="D25"/>
+    <hyperlink r:id="rId49" ref="C26"/>
+    <hyperlink r:id="rId50" ref="D26"/>
+    <hyperlink r:id="rId51" ref="C27"/>
+    <hyperlink r:id="rId52" ref="D27"/>
+    <hyperlink r:id="rId53" ref="C28"/>
+    <hyperlink r:id="rId54" ref="D28"/>
+    <hyperlink r:id="rId55" ref="C29"/>
+    <hyperlink r:id="rId56" ref="D29"/>
+    <hyperlink r:id="rId57" ref="C30"/>
+    <hyperlink r:id="rId58" ref="D30"/>
+    <hyperlink r:id="rId59" ref="C31"/>
+    <hyperlink r:id="rId60" ref="D31"/>
+    <hyperlink r:id="rId61" ref="C32"/>
+    <hyperlink r:id="rId62" ref="D32"/>
+    <hyperlink r:id="rId63" ref="C33"/>
+    <hyperlink r:id="rId64" ref="D33"/>
+    <hyperlink r:id="rId65" ref="C34"/>
+    <hyperlink r:id="rId66" ref="D34"/>
+    <hyperlink r:id="rId67" ref="C35"/>
+    <hyperlink r:id="rId68" ref="D35"/>
+    <hyperlink r:id="rId69" ref="C36"/>
+    <hyperlink r:id="rId70" ref="D36"/>
+    <hyperlink r:id="rId71" ref="C37"/>
+    <hyperlink r:id="rId72" ref="D37"/>
+    <hyperlink r:id="rId73" ref="C38"/>
+    <hyperlink r:id="rId74" ref="D38"/>
+    <hyperlink r:id="rId75" ref="C39"/>
+    <hyperlink r:id="rId76" ref="D39"/>
+    <hyperlink r:id="rId77" ref="C40"/>
+    <hyperlink r:id="rId78" ref="D40"/>
+    <hyperlink r:id="rId79" ref="C41"/>
+    <hyperlink r:id="rId80" ref="D41"/>
+    <hyperlink r:id="rId81" ref="C42"/>
+    <hyperlink r:id="rId82" ref="D42"/>
+    <hyperlink r:id="rId83" ref="C43"/>
+    <hyperlink r:id="rId84" ref="D43"/>
+    <hyperlink r:id="rId85" ref="C44"/>
+    <hyperlink r:id="rId86" ref="D44"/>
+    <hyperlink r:id="rId87" ref="C45"/>
+    <hyperlink r:id="rId88" ref="D45"/>
+    <hyperlink r:id="rId89" ref="C46"/>
+    <hyperlink r:id="rId90" ref="D46"/>
+    <hyperlink r:id="rId91" ref="C47"/>
+    <hyperlink r:id="rId92" ref="D47"/>
+    <hyperlink r:id="rId93" ref="C48"/>
+    <hyperlink r:id="rId94" ref="D48"/>
+    <hyperlink r:id="rId95" ref="C49"/>
+    <hyperlink r:id="rId96" ref="D49"/>
+    <hyperlink r:id="rId97" ref="C50"/>
+    <hyperlink r:id="rId98" ref="D50"/>
+    <hyperlink r:id="rId99" ref="C51"/>
+    <hyperlink r:id="rId100" ref="D51"/>
+  </hyperlinks>
+  <drawing r:id="rId101"/>
+</worksheet>
 </file>